--- a/SQL table designs.xlsx
+++ b/SQL table designs.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0851683\Mijn Documenten\Python Scripts\telegram bots\BonkieBotV2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timo\PycharmProjects\BonkieBot V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="0" windowWidth="22905" windowHeight="10185"/>
+    <workbookView xWindow="3120" yWindow="0" windowWidth="22905" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -283,8 +283,36 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -372,6 +400,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -407,6 +452,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -561,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
